--- a/public/uploads/excel_mau.xlsx
+++ b/public/uploads/excel_mau.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORKING\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\hr\public\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
   <si>
     <t>MAP01</t>
   </si>
@@ -109,6 +109,18 @@
   </si>
   <si>
     <t>TOM</t>
+  </si>
+  <si>
+    <t>nhanvien</t>
+  </si>
+  <si>
+    <t>Đại Diện Phòng SALES</t>
+  </si>
+  <si>
+    <t>E0078</t>
+  </si>
+  <si>
+    <t>phongban</t>
   </si>
 </sst>
 </file>
@@ -159,7 +171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -170,6 +182,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -484,13 +498,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L10" sqref="L10"/>
+      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -503,8 +517,8 @@
     <col min="6" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3">
+    <row r="1" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5">
         <f>SUBTOTAL(103,$D$1:D1)</f>
         <v>1</v>
       </c>
@@ -517,9 +531,12 @@
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+      <c r="E1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
         <f>SUBTOTAL(103,$D$1:D2)</f>
         <v>2</v>
       </c>
@@ -532,9 +549,12 @@
       <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+      <c r="E2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
         <f>SUBTOTAL(103,$D$1:D3)</f>
         <v>3</v>
       </c>
@@ -547,9 +567,12 @@
       <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+      <c r="E3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
         <f>SUBTOTAL(103,$D$1:D4)</f>
         <v>4</v>
       </c>
@@ -562,9 +585,12 @@
       <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+      <c r="E4" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
         <f>SUBTOTAL(103,$D$1:D5)</f>
         <v>5</v>
       </c>
@@ -577,9 +603,12 @@
       <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+      <c r="E5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
         <f>SUBTOTAL(103,$D$1:D6)</f>
         <v>6</v>
       </c>
@@ -592,9 +621,12 @@
       <c r="D6" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+      <c r="E6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
         <f>SUBTOTAL(103,$D$1:D7)</f>
         <v>7</v>
       </c>
@@ -607,9 +639,12 @@
       <c r="D7" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+      <c r="E7" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
         <f>SUBTOTAL(103,$D$1:D8)</f>
         <v>8</v>
       </c>
@@ -622,9 +657,12 @@
       <c r="D8" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+      <c r="E8" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
         <f>SUBTOTAL(103,$D$1:D9)</f>
         <v>9</v>
       </c>
@@ -637,9 +675,12 @@
       <c r="D9" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+      <c r="E9" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
         <f>SUBTOTAL(103,$D$1:D10)</f>
         <v>10</v>
       </c>
@@ -651,6 +692,26 @@
       </c>
       <c r="D10" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
